--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1951.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1951.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.180652100437479</v>
+        <v>0.2280973941087723</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.2552430927753448</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.3115582168102264</v>
       </c>
       <c r="D1">
-        <v>1.805240837090737</v>
+        <v>0.5969285368919373</v>
       </c>
       <c r="E1">
-        <v>1.130550224232632</v>
+        <v>4.431256294250488</v>
       </c>
     </row>
   </sheetData>
